--- a/nbs/files/lut/dbo_sedtype.xlsx
+++ b/nbs/files/lut/dbo_sedtype.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D10199-32B0-4113-B5EA-AAABFD7C5A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621B13CF-C4D9-E041-B09C-5572580B156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbo_sedtype" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="dbo_sedtype">dbo_sedtype!$A$1:$D$64</definedName>
+    <definedName name="dbo_sedtype">dbo_sedtype!$A$1:$D$65</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
   <si>
     <t>sedtype_id</t>
   </si>
@@ -458,17 +463,20 @@
   </si>
   <si>
     <t>SASILT</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -833,20 +841,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -860,738 +868,746 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>66</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>80</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>86</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>88</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>90</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>92</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>93</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>95</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>97</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>99</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>103</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>105</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>107</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>109</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>111</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>115</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>121</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>123</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>125</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>127</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>129</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>131</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>133</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>135</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>137</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>139</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>141</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1607,6 +1623,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C266C02A97D1D41B60FC5BB4AB3B561" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="627c5da731661f4bf76604184727f2d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3c01d95-e195-4940-9fb4-afa395d98e0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bf665a11c7ceb3b31f5a9dbdfc3fcda" ns2:_="">
     <xsd:import namespace="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
@@ -1738,23 +1763,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{204CBD9F-684A-445C-A7C1-94CB78F0C545}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{204CBD9F-684A-445C-A7C1-94CB78F0C545}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEC0707-DFF7-4054-9B24-5AA1806D32FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A455860D-547D-49FF-8782-6C38DF3CF22F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A455860D-547D-49FF-8782-6C38DF3CF22F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEC0707-DFF7-4054-9B24-5AA1806D32FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/nbs/files/lut/dbo_sedtype.xlsx
+++ b/nbs/files/lut/dbo_sedtype.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621B13CF-C4D9-E041-B09C-5572580B156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB48AE4-88D8-634F-858A-27F670D2946E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,7 +844,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1617,21 +1617,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C266C02A97D1D41B60FC5BB4AB3B561" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="627c5da731661f4bf76604184727f2d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3c01d95-e195-4940-9fb4-afa395d98e0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bf665a11c7ceb3b31f5a9dbdfc3fcda" ns2:_="">
     <xsd:import namespace="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
@@ -1763,24 +1748,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{204CBD9F-684A-445C-A7C1-94CB78F0C545}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A455860D-547D-49FF-8782-6C38DF3CF22F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEC0707-DFF7-4054-9B24-5AA1806D32FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1796,4 +1779,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A455860D-547D-49FF-8782-6C38DF3CF22F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{204CBD9F-684A-445C-A7C1-94CB78F0C545}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>